--- a/utils/excelUtil/res/dataBase.xlsx
+++ b/utils/excelUtil/res/dataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiasy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/utils/excelUtil/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CBDA85-5B7C-D345-A9D8-FF2F10158845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03ED52-7380-E24D-9663-277B394DD0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="45860" windowHeight="28340" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="45860" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_ExcelList" sheetId="11" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="447">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2024,10 +2024,10 @@
   </si>
   <si>
     <t>Init</t>
-    <rPh sb="0" eb="10">
+    <rPh sb="0" eb="4">
       <t>wu'fa</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Init</t>
@@ -2039,28 +2039,28 @@
   </si>
   <si>
     <t>Login</t>
-    <rPh sb="0" eb="21">
+    <rPh sb="0" eb="5">
       <t>ji'xu</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Main</t>
     <rPh sb="0" eb="2">
       <t>pi'pei</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Pop</t>
-    <rPh sb="0" eb="15">
+    <rPh sb="0" eb="3">
       <t>xu'yao'fu'huo</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>toMain</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>登陆</t>
@@ -2101,6 +2101,22 @@
   <si>
     <t>btn_toGame</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>iItemNoName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bItemNoName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sItemNoName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>strValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2338,13 +2354,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2358,6 +2367,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2600,7 +2616,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2763,6 +2779,18 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2771,18 +2799,6 @@
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -46333,17 +46349,17 @@
       <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6">
@@ -46477,7 +46493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B7557C-77A7-434D-83D1-B1984621DA5E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -46486,101 +46502,101 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="31" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="72"/>
-    <col min="2" max="2" width="41.1640625" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="72"/>
-    <col min="7" max="7" width="12" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="72"/>
+    <col min="1" max="1" width="11" style="69"/>
+    <col min="2" max="2" width="41.1640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="69"/>
+    <col min="7" max="7" width="12" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="70" customFormat="1" ht="31" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:7" s="67" customFormat="1" ht="31" customHeight="1">
+      <c r="A1" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="67" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="69" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="31" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="67" t="s">
         <v>437</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -46594,9 +46610,9 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="13"/>
   <cols>
@@ -46762,7 +46778,7 @@
     <row r="10" spans="1:12" ht="16">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>443</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -46778,11 +46794,13 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -46796,9 +46814,11 @@
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -46810,11 +46830,11 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -46827,14 +46847,12 @@
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -46846,13 +46864,11 @@
     <row r="15" spans="1:12" ht="16">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -46864,11 +46880,13 @@
     <row r="16" spans="1:12" ht="16">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -46882,10 +46900,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -46898,13 +46916,11 @@
     <row r="18" spans="1:12" ht="16">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -46914,13 +46930,15 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -46930,15 +46948,15 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -46948,14 +46966,14 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -46966,14 +46984,14 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -46986,8 +47004,12 @@
     <row r="23" spans="1:12" ht="16">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -46998,7 +47020,9 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="16">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -47012,8 +47036,12 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="16">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -47026,8 +47054,12 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="16">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -47040,8 +47072,12 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="16">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -47752,6 +47788,76 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="16">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" ht="16">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="16">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="16">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" ht="16">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -47785,11 +47891,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="16"/>
@@ -47942,11 +48048,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="16"/>
@@ -48773,11 +48879,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="16"/>
@@ -48951,11 +49057,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="15" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="16"/>
@@ -49398,11 +49504,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="15" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="16"/>
@@ -49813,11 +49919,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="15" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="16"/>
@@ -50186,11 +50292,11 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="37"/>
